--- a/WebContent/ListaAlunos.xlsx
+++ b/WebContent/ListaAlunos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42020" yWindow="1800" windowWidth="30160" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_Alunos_sem_login" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>EMAIL PROFESSOR</t>
   </si>
   <si>
-    <t>PERÍODO (Manhã/Tarde)</t>
+    <t>PERÍODO (MANHÃ/TARDE)</t>
   </si>
 </sst>
 </file>

--- a/WebContent/ListaAlunos.xlsx
+++ b/WebContent/ListaAlunos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7080" yWindow="1380" windowWidth="30120" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_Alunos_sem_login" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PROFESSOR</t>
   </si>
@@ -45,7 +45,13 @@
     <t>EMAIL PROFESSOR</t>
   </si>
   <si>
-    <t>PERÍODO (MANHÃ/TARDE)</t>
+    <t>PERÍODO (Manhã = M / Tarde = T)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Menino</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
     <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34" style="4" customWidth="1"/>
     <col min="5" max="6" width="38.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="50.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.83203125" style="4" customWidth="1"/>
@@ -547,7 +553,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="6"/>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>

--- a/WebContent/ListaAlunos.xlsx
+++ b/WebContent/ListaAlunos.xlsx
@@ -24,9 +24,6 @@
     <t>PROFESSOR</t>
   </si>
   <si>
-    <t>ESCOLA</t>
-  </si>
-  <si>
     <t>NOME COMPLETO DO ALUNO</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Menino</t>
+  </si>
+  <si>
+    <t>CODIGO INEP DA ESCOLA</t>
   </si>
 </sst>
 </file>
@@ -524,41 +524,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6"/>
       <c r="I2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">

--- a/WebContent/ListaAlunos.xlsx
+++ b/WebContent/ListaAlunos.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="7080" yWindow="1380" windowWidth="30120" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista_Alunos_sem_login" sheetId="6" r:id="rId1"/>
+    <sheet name="Manager" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>

--- a/WebContent/ListaAlunos.xlsx
+++ b/WebContent/ListaAlunos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlapapalardo/Workspace/GatopolisManager/WebContent/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7080" yWindow="1380" windowWidth="30120" windowHeight="16000" tabRatio="500"/>
   </bookViews>
@@ -19,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PROFESSOR</t>
   </si>
   <si>
-    <t>NOME COMPLETO DO ALUNO</t>
-  </si>
-  <si>
     <t>DATA DE NASCIMENTO (FORMATO: 12052008)</t>
   </si>
   <si>
@@ -52,6 +54,12 @@
   </si>
   <si>
     <t>CODIGO INEP DA ESCOLA</t>
+  </si>
+  <si>
+    <t>NOME DO ALUNO</t>
+  </si>
+  <si>
+    <t>SOBRENOME DO ALUNO</t>
   </si>
 </sst>
 </file>
@@ -180,6 +188,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -505,11 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
@@ -517,60 +532,59 @@
     <col min="4" max="4" width="34" style="4" customWidth="1"/>
     <col min="5" max="6" width="38.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="50.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="4"/>
+    <col min="8" max="8" width="50.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="F3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>